--- a/results/final_tables/summary_table_Suthaus_2023_test_Full18S_test_RAD_sim_90.xlsx
+++ b/results/final_tables/summary_table_Suthaus_2023_test_Full18S_test_RAD_sim_90.xlsx
@@ -511,17 +511,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>centroid=a2fe8668a8c512fe0a413a7f3004dfea0fe7e1a0;size=39;;seqs=8</t>
+          <t>centroid=32236fb60875a15d4e9a4501a1efd9ee34481ffe;size=30;;seqs=1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -541,37 +541,37 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Spirotrichea</t>
+          <t>Oligohymenophorea</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Hypotrichia</t>
+          <t>Peritrichia_2</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Urostylidae</t>
+          <t>Sessilida</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Uroleptus</t>
+          <t>Ophrydium</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Uroleptus_sp.</t>
+          <t>Ophrydium_versatile</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>HQ219338</t>
+          <t>AF401526</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>98.8</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -586,17 +586,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>centroid=23d8fdf063f4c31a8e0dd27ced78b1d57824e557;size=20;;seqs=1</t>
+          <t>centroid=306590f96d6b8cf6b46307a0e1c7c274b3f4faea;size=84;;seqs=2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -616,37 +616,37 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Bacillariophyceae</t>
+          <t>Eustigmatophyceae</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Bacillariales</t>
+          <t>Eustigmatophyceae_X</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Bacillariaceae</t>
+          <t>Eustigmatophyceae_XX</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Fragilariopsis</t>
+          <t>Nannochloropsis</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Fragilariopsis_kerguelensis</t>
+          <t>Nannochloropsis_sp.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>LR812489</t>
+          <t>DQ977727</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>96.9</t>
+          <t>97.4</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>centroid=306590f96d6b8cf6b46307a0e1c7c274b3f4faea;size=84;;seqs=2</t>
+          <t>centroid=11938f3457a7baf71e35622aefb4655e1c594e0c;size=33;;seqs=2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -681,47 +681,47 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Stramenopiles-Gyrista</t>
+          <t>Opisthokonta-Metazoa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Eustigmatophyceae</t>
+          <t>Gastrotricha</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Eustigmatophyceae_X</t>
+          <t>Gastrotricha_X</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Eustigmatophyceae_XX</t>
+          <t>Gastrotricha_XX</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Nannochloropsis</t>
+          <t>Heterolepidoderma</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Nannochloropsis_sp.</t>
+          <t>Heterolepidoderma_acidophilum</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>DQ977727</t>
+          <t>JN185477</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>97.4</t>
+          <t>99.9</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -736,17 +736,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>centroid=ac25a1d8bea70cd63f30a629f2c37ae4f7341240;size=49;;seqs=3</t>
+          <t>centroid=a2fe8668a8c512fe0a413a7f3004dfea0fe7e1a0;size=39;;seqs=8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -761,42 +761,42 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Stramenopiles-Gyrista</t>
+          <t>Alveolata-Ciliophora</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Raphidophyceae</t>
+          <t>Spirotrichea</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Raphidophyceae_X</t>
+          <t>Hypotrichia</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Raphidophyceae_XX</t>
+          <t>Urostylidae</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Vacuolaria</t>
+          <t>Uroleptus</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Vacuolaria_virescens</t>
+          <t>Uroleptus_sp.</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>U41651</t>
+          <t>HQ219338</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>99.9</t>
+          <t>98.8</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -811,17 +811,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>centroid=dd0ea1e25b8a773273e3fdd767df8deb687da54d;size=64;;seqs=1</t>
+          <t>centroid=ac25a1d8bea70cd63f30a629f2c37ae4f7341240;size=49;;seqs=3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -831,47 +831,47 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Opisthokonta-Metazoa</t>
+          <t>Stramenopiles-Gyrista</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Arthropoda</t>
+          <t>Raphidophyceae</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Crustacea</t>
+          <t>Raphidophyceae_X</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Maxillopoda</t>
+          <t>Raphidophyceae_XX</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Bryocamptus</t>
+          <t>Vacuolaria</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Bryocamptus_pygmaeus</t>
+          <t>Vacuolaria_virescens</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>AY627015</t>
+          <t>U41651</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>99.8</t>
+          <t>99.9</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -886,17 +886,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>centroid=11938f3457a7baf71e35622aefb4655e1c594e0c;size=33;;seqs=2</t>
+          <t>centroid=b2997d6bfce52b99cdf645e391a4ab313b828eda;size=153;;seqs=1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -916,37 +916,37 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Gastrotricha</t>
+          <t>Annelida</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Gastrotricha_X</t>
+          <t>Annelida_X</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Gastrotricha_XX</t>
+          <t>Annelida_XX</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Heterolepidoderma</t>
+          <t>Cognettia</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Heterolepidoderma_acidophilum</t>
+          <t>Cognettia_cognetti</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>JN185477</t>
+          <t>GU901866</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>99.9</t>
+          <t>99.8</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -961,12 +961,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>centroid=b2997d6bfce52b99cdf645e391a4ab313b828eda;size=153;;seqs=1</t>
+          <t>centroid=dd0ea1e25b8a773273e3fdd767df8deb687da54d;size=64;;seqs=1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -991,32 +991,32 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Annelida</t>
+          <t>Arthropoda</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Annelida_X</t>
+          <t>Crustacea</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Annelida_XX</t>
+          <t>Maxillopoda</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Cognettia</t>
+          <t>Bryocamptus</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Cognettia_cognetti</t>
+          <t>Bryocamptus_pygmaeus</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>GU901866</t>
+          <t>AY627015</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>centroid=32236fb60875a15d4e9a4501a1efd9ee34481ffe;size=30;;seqs=1</t>
+          <t>centroid=f0c98c490502c35fe67583f78aab5de51ee86dea;size=35;;seqs=1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1056,42 +1056,42 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alveolata-Ciliophora</t>
+          <t>Opisthokonta-Metazoa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Oligohymenophorea</t>
+          <t>Rotifera</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Peritrichia_2</t>
+          <t>Rotifera_X</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Sessilida</t>
+          <t>Rotifera_XX</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Ophrydium</t>
+          <t>Cephalodella</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Ophrydium_versatile</t>
+          <t>Cephalodella_gibba</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>AF401526</t>
+          <t>AY218114</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1111,17 +1111,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>centroid=f0c98c490502c35fe67583f78aab5de51ee86dea;size=35;;seqs=1</t>
+          <t>centroid=e97ecab63eae63dc6d4bc2c9c848a739c25a8ad3;size=18;;seqs=2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1131,42 +1131,42 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Opisthokonta-Metazoa</t>
+          <t>Stramenopiles-Gyrista</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rotifera</t>
+          <t>Chrysophyceae</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Rotifera_X</t>
+          <t>Hibberdiales</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Rotifera_XX</t>
+          <t>Hibberdiaceae</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Cephalodella</t>
+          <t>Chrysocapsa</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Cephalodella_gibba</t>
+          <t>Chrysocapsa_wetherbeei</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>AY218114</t>
+          <t>EF165145</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1186,17 +1186,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>centroid=19d51396b22feda12e0d8b4aed69b01750603091;size=71;;seqs=2</t>
+          <t>centroid=23d8fdf063f4c31a8e0dd27ced78b1d57824e557;size=20;;seqs=1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1206,47 +1206,47 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Opisthokonta-Fungi</t>
+          <t>Stramenopiles-Gyrista</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Ascomycota</t>
+          <t>Bacillariophyceae</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Pezizomycotina</t>
+          <t>Bacillariales</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Leotiomycetes</t>
+          <t>Bacillariaceae</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Tetrachaetum</t>
+          <t>Fragilariopsis</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Tetrachaetum_elegans</t>
+          <t>Fragilariopsis_kerguelensis</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>AY357280</t>
+          <t>LR812489</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>97.4</t>
+          <t>96.9</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>centroid=e97ecab63eae63dc6d4bc2c9c848a739c25a8ad3;size=18;;seqs=2</t>
+          <t>centroid=19d51396b22feda12e0d8b4aed69b01750603091;size=71;;seqs=2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1281,47 +1281,47 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Stramenopiles-Gyrista</t>
+          <t>Opisthokonta-Fungi</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Chrysophyceae</t>
+          <t>Ascomycota</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Hibberdiales</t>
+          <t>Pezizomycotina</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Hibberdiaceae</t>
+          <t>Leotiomycetes</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Chrysocapsa</t>
+          <t>Tetrachaetum</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Chrysocapsa_wetherbeei</t>
+          <t>Tetrachaetum_elegans</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>EF165145</t>
+          <t>AY357280</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>99.1</t>
+          <t>97.4</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>centroid=23d8fdf063f4c31a8e0dd27ced78b1d57824e557;size=30;;seqs=1</t>
+          <t>centroid=2dd9accc61db15bf583ee7a5320f60d33bd2b02b;size=8;;seqs=1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1511,42 +1511,42 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Stramenopiles-Gyrista</t>
+          <t>Rhizaria-Cercozoa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Bacillariophyceae</t>
+          <t>Endomyxa</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Bacillariales</t>
+          <t>Vampyrellida</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Bacillariaceae</t>
+          <t>Placopodidae</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Fragilariopsis</t>
+          <t>Placopus</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Fragilariopsis_kerguelensis</t>
+          <t>Placopus_flabellus_HR01</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>LR812489</t>
+          <t>KY124641</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>96.9</t>
+          <t>99.7</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>centroid=36628f8491b224eccbb919f3bfe92358f9b96d95;size=12;;seqs=1</t>
+          <t>centroid=82c290bc8e286f391b76a428162133c7631b4694;size=12;;seqs=1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1676,27 +1676,27 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Vampyrellidae</t>
+          <t>Leptophryidae</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Vampyrella</t>
+          <t>Pseudovampyrella</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Vampyrella_lateritia_strain_VL09</t>
+          <t>Pseudovampyrella_closterii_strain_VC01</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>XXXXXXXX</t>
+          <t>OQ591878</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>99.9</t>
+          <t>99.6</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1711,12 +1711,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>centroid=2dd9accc61db15bf583ee7a5320f60d33bd2b02b;size=8;;seqs=1</t>
+          <t>centroid=34d4211c7c373399ae53d733a754c76d1a9dd075;size=141;;seqs=1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1741,37 +1741,37 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Endomyxa</t>
+          <t>Filosa-Sarcomonadea</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Vampyrellida</t>
+          <t>Glissomonadida</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Placopodidae</t>
+          <t>Allapsidae</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Placopus</t>
+          <t>Viridiraptor</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Placopus_flabellus_HR01</t>
+          <t>Viridiraptor_invadens</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>KY124641</t>
+          <t>KF207869</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>99.7</t>
+          <t>99.9</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1786,12 +1786,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>centroid=82c290bc8e286f391b76a428162133c7631b4694;size=12;;seqs=1</t>
+          <t>centroid=23d8fdf063f4c31a8e0dd27ced78b1d57824e557;size=30;;seqs=1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1811,42 +1811,42 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Rhizaria-Cercozoa</t>
+          <t>Stramenopiles-Gyrista</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Endomyxa</t>
+          <t>Bacillariophyceae</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Vampyrellida</t>
+          <t>Bacillariales</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Leptophryidae</t>
+          <t>Bacillariaceae</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Pseudovampyrella</t>
+          <t>Fragilariopsis</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Pseudovampyrella_closterii_strain_VC01</t>
+          <t>Fragilariopsis_kerguelensis</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>OQ591878</t>
+          <t>LR812489</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>99.6</t>
+          <t>96.9</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1861,12 +1861,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>centroid=34d4211c7c373399ae53d733a754c76d1a9dd075;size=141;;seqs=1</t>
+          <t>centroid=36628f8491b224eccbb919f3bfe92358f9b96d95;size=12;;seqs=1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1891,32 +1891,32 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Filosa-Sarcomonadea</t>
+          <t>Endomyxa</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Glissomonadida</t>
+          <t>Vampyrellida</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Allapsidae</t>
+          <t>Vampyrellidae</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Viridiraptor</t>
+          <t>Vampyrella</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Viridiraptor_invadens</t>
+          <t>Vampyrella_lateritia_strain_VL09</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>KF207869</t>
+          <t>XXXXXXXX</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2086,17 +2086,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>centroid=f0dad30d7e5917352d23e31676854aa03004c52d;size=11;;seqs=1</t>
+          <t>centroid=5362d634dda1d71a7cf99af18e3bf10226987fbb;size=86;;seqs=2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2131,22 +2131,22 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Closterium</t>
+          <t>Zygnema</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Closterium_sp.</t>
+          <t>Zygnema_circumcarinatum</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>AF352226</t>
+          <t>KM020155</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>94.7</t>
+          <t>92.1</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2161,17 +2161,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>centroid=5362d634dda1d71a7cf99af18e3bf10226987fbb;size=86;;seqs=2</t>
+          <t>centroid=f0dad30d7e5917352d23e31676854aa03004c52d;size=11;;seqs=1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2206,22 +2206,22 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Zygnema</t>
+          <t>Closterium</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Zygnema_circumcarinatum</t>
+          <t>Closterium_sp.</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>KM020155</t>
+          <t>AF352226</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>92.1</t>
+          <t>94.7</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2386,17 +2386,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>centroid=615587c55884d8dc38abae133bf9b1f089f273ac;size=55;;seqs=1</t>
+          <t>centroid=8ca54dffd341b36044bbd6a79910bc2dc5e1dc0a;size=54;;seqs=6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2416,32 +2416,32 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Nematoda</t>
+          <t>Annelida</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Chromadorea</t>
+          <t>Annelida_X</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Haliplectoidea</t>
+          <t>Annelida_XX</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Rhabdolaimus</t>
+          <t>Slavina</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Rhabdolaimus_aquaticus</t>
+          <t>Slavina_appendiculata</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>FJ969139</t>
+          <t>AF411876</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2461,17 +2461,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>centroid=2bfc49b789f417ebeaee803a164aa0cff6a41e2c;size=34;;seqs=1</t>
+          <t>centroid=1032b1d5fad9b20fffd955873ad4d4cf3033b7ec;size=24;;seqs=2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2486,42 +2486,42 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Opisthokonta-Fungi</t>
+          <t>Opisthokonta-Metazoa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Rozellomycota</t>
+          <t>Arthropoda</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Rozellomycota_X</t>
+          <t>Crustacea</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Rozellomycota_XX</t>
+          <t>Ostracoda</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Rozellomycota_XXX</t>
+          <t>Cypridopsis</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Rozellomycota_XXX_sp.</t>
+          <t>Cypridopsis_uenoi</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>AB695466</t>
+          <t>AB674996</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>93.9</t>
+          <t>96.5</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2536,17 +2536,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>centroid=8ca54dffd341b36044bbd6a79910bc2dc5e1dc0a;size=54;;seqs=6</t>
+          <t>centroid=50d65b5f2e673d230c7c0e1ed09a01befe887fb7;size=34;;seqs=1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2556,47 +2556,47 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Opisthokonta-Metazoa</t>
+          <t>Stramenopiles-Gyrista</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Annelida</t>
+          <t>Peronosporomycetes</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Annelida_X</t>
+          <t>Peronosporomycetes_X</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Annelida_XX</t>
+          <t>Haliphthorales</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Slavina</t>
+          <t>Haliphthoros</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Slavina_appendiculata</t>
+          <t>Haliphthoros_sp.</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>AF411876</t>
+          <t>AB178865</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>99.8</t>
+          <t>91.5</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2611,17 +2611,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>centroid=2c4bf92cc2aeba7cb3737309688b045520d58fc6;size=25;;seqs=3</t>
+          <t>centroid=8c5592e0c68a4b393c60ab0229433df587a13cac;size=13;;seqs=1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2641,37 +2641,37 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Nematoda</t>
+          <t>Platyhelminthes</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Enoplea</t>
+          <t>Turbellaria</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Enoplea_X</t>
+          <t>Catenulida</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Paractinolaimus</t>
+          <t>Stenostomum</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Paractinolaimus_macrolaimus</t>
+          <t>Stenostomum_leucops_aquariorum</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>AY993978</t>
+          <t>AJ012519</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>97.9</t>
+          <t>98.8</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2686,17 +2686,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>centroid=1b5cb4669174c2b220fb59a972402daaebbfbb79;size=71;;seqs=1</t>
+          <t>centroid=bded51d8678534408030194bfe02553195891f50;size=28;;seqs=2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2711,42 +2711,42 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Opisthokonta-Fungi</t>
+          <t>Opisthokonta-Metazoa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Ascomycota</t>
+          <t>Gastrotricha</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Pezizomycotina</t>
+          <t>Gastrotricha_X</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Leotiomycetes</t>
+          <t>Gastrotricha_XX</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Tetracladium</t>
+          <t>Chaetonotus</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Tetracladium_sp.</t>
+          <t>Chaetonotus_sp.</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>BD016984</t>
+          <t>JQ798603</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>99.8</t>
+          <t>98.8</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2761,12 +2761,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>centroid=bded51d8678534408030194bfe02553195891f50;size=28;;seqs=2</t>
+          <t>centroid=0ec90afe751dfd7ca6faee86fee9e1bda6ebadda;size=42;;seqs=2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2781,47 +2781,47 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>Archaeplastida</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Opisthokonta-Metazoa</t>
+          <t>Chlorophyta-Chlorophyta_X</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Gastrotricha</t>
+          <t>Chlorophyceae</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Gastrotricha_X</t>
+          <t>Chlamydomonadales</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Gastrotricha_XX</t>
+          <t>Chlamydomonadales_X</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Chaetonotus</t>
+          <t>Chlamydomonadales_XX</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Chaetonotus_sp.</t>
+          <t>Chlamydomonadales_XX_sp.</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>JQ798603</t>
+          <t>FJ946901</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>98.8</t>
+          <t>96.5</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2836,17 +2836,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>centroid=1032b1d5fad9b20fffd955873ad4d4cf3033b7ec;size=24;;seqs=2</t>
+          <t>centroid=615587c55884d8dc38abae133bf9b1f089f273ac;size=55;;seqs=1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2866,37 +2866,37 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Arthropoda</t>
+          <t>Nematoda</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Crustacea</t>
+          <t>Chromadorea</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Ostracoda</t>
+          <t>Haliplectoidea</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Cypridopsis</t>
+          <t>Rhabdolaimus</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Cypridopsis_uenoi</t>
+          <t>Rhabdolaimus_aquaticus</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>AB674996</t>
+          <t>FJ969139</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>96.5</t>
+          <t>99.8</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2911,17 +2911,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>centroid=09705c21cd034a76b20d2888d4fbf55e6cc5bf22;size=68;;seqs=1</t>
+          <t>centroid=2c4bf92cc2aeba7cb3737309688b045520d58fc6;size=25;;seqs=3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2941,37 +2941,37 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Arthropoda</t>
+          <t>Nematoda</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Chelicerata</t>
+          <t>Enoplea</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Arachnida</t>
+          <t>Enoplea_X</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Hydrozetes</t>
+          <t>Paractinolaimus</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Hydrozetes_lacustris</t>
+          <t>Paractinolaimus_macrolaimus</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>EU433987</t>
+          <t>AY993978</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>99.9</t>
+          <t>97.9</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -3061,12 +3061,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>centroid=8473c68037aa41fab11dce726025cf097b692d64;size=21;;seqs=1</t>
+          <t>centroid=09705c21cd034a76b20d2888d4fbf55e6cc5bf22;size=68;;seqs=1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3096,32 +3096,32 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Hexapoda</t>
+          <t>Chelicerata</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Insecta</t>
+          <t>Arachnida</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Cloeon</t>
+          <t>Hydrozetes</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Cloeon_sp.</t>
+          <t>Hydrozetes_lacustris</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>AM042656</t>
+          <t>EU433987</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>99.7</t>
+          <t>99.9</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3136,17 +3136,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>centroid=5f46e88230514faa339798577fee296748cdb642;size=45;;seqs=2</t>
+          <t>centroid=1b5cb4669174c2b220fb59a972402daaebbfbb79;size=71;;seqs=1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3156,47 +3156,47 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alveolata-Dinoflagellata</t>
+          <t>Opisthokonta-Fungi</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Dinophyceae</t>
+          <t>Ascomycota</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Peridiniales</t>
+          <t>Pezizomycotina</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Thoracosphaeraceae</t>
+          <t>Leotiomycetes</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Scrippsiella</t>
+          <t>Tetracladium</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Scrippsiella_sp.</t>
+          <t>Tetracladium_sp.</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>HM483396</t>
+          <t>BD016984</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>97.9</t>
+          <t>99.8</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3211,12 +3211,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>centroid=8c5592e0c68a4b393c60ab0229433df587a13cac;size=13;;seqs=1</t>
+          <t>centroid=2bfc49b789f417ebeaee803a164aa0cff6a41e2c;size=34;;seqs=1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3236,42 +3236,42 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Opisthokonta-Metazoa</t>
+          <t>Opisthokonta-Fungi</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Platyhelminthes</t>
+          <t>Rozellomycota</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Turbellaria</t>
+          <t>Rozellomycota_X</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Catenulida</t>
+          <t>Rozellomycota_XX</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Stenostomum</t>
+          <t>Rozellomycota_XXX</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Stenostomum_leucops_aquariorum</t>
+          <t>Rozellomycota_XXX_sp.</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>AJ012519</t>
+          <t>AB695466</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>98.8</t>
+          <t>93.9</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3286,17 +3286,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>centroid=07fd9e4fd8aeb02f7bd993b806f910ba6ead05af;size=71;;seqs=1</t>
+          <t>centroid=5f46e88230514faa339798577fee296748cdb642;size=45;;seqs=2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3311,42 +3311,42 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Stramenopiles-Gyrista</t>
+          <t>Alveolata-Dinoflagellata</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Chrysophyceae</t>
+          <t>Dinophyceae</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Ochromonadales</t>
+          <t>Peridiniales</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Ochromonadales_clade-X</t>
+          <t>Thoracosphaeraceae</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Ochromonadales_clade-X_X</t>
+          <t>Scrippsiella</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Ochromonadales_clade-X_X_sp.</t>
+          <t>Scrippsiella_sp.</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>EF165143</t>
+          <t>HM483396</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>99.5</t>
+          <t>97.9</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>centroid=50d65b5f2e673d230c7c0e1ed09a01befe887fb7;size=34;;seqs=1</t>
+          <t>centroid=07fd9e4fd8aeb02f7bd993b806f910ba6ead05af;size=71;;seqs=1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3391,37 +3391,37 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Peronosporomycetes</t>
+          <t>Chrysophyceae</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Peronosporomycetes_X</t>
+          <t>Ochromonadales</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Haliphthorales</t>
+          <t>Ochromonadales_clade-X</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Haliphthoros</t>
+          <t>Ochromonadales_clade-X_X</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Haliphthoros_sp.</t>
+          <t>Ochromonadales_clade-X_X_sp.</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>AB178865</t>
+          <t>EF165143</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>91.5</t>
+          <t>99.5</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3436,17 +3436,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>centroid=0ec90afe751dfd7ca6faee86fee9e1bda6ebadda;size=42;;seqs=2</t>
+          <t>centroid=8473c68037aa41fab11dce726025cf097b692d64;size=21;;seqs=1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3456,47 +3456,47 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Archaeplastida</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Chlorophyta-Chlorophyta_X</t>
+          <t>Opisthokonta-Metazoa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Chlorophyceae</t>
+          <t>Arthropoda</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Chlamydomonadales</t>
+          <t>Hexapoda</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Chlamydomonadales_X</t>
+          <t>Insecta</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Chlamydomonadales_XX</t>
+          <t>Cloeon</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Chlamydomonadales_XX_sp.</t>
+          <t>Cloeon_sp.</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>FJ946901</t>
+          <t>AM042656</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>96.5</t>
+          <t>99.7</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3511,17 +3511,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>centroid=038703e871e1cc907ef66a785fec1f741d3babe1;size=44;;seqs=2</t>
+          <t>centroid=c03d5323adf2b66731db7cda7581d4c4cb688ce9;size=24;;seqs=1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3531,47 +3531,47 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Excavata</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Discoba-Euglenozoa</t>
+          <t>Alveolata-Dinoflagellata</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Diplonemea</t>
+          <t>Syndiniales</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Diplonemida</t>
+          <t>Dino-Group-I</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Eupelagonemidae</t>
+          <t>Dino-Group-I-Clade-1</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Eupelagonemidae_X</t>
+          <t>Dino-Group-I-Clade-1_X</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Eupelagonemidae_X_sp.</t>
+          <t>Dino-Group-I-Clade-1_X_sp.</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>KY947153</t>
+          <t>KJ761678</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>94.2</t>
+          <t>89.5</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3586,17 +3586,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>centroid=09d1b6685fa8942da6fef8b1b3eca49531dc7f85;size=27;;seqs=3</t>
+          <t>centroid=78d4fe54070bddca52457ee10686820a9983250e;size=19;;seqs=1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3611,42 +3611,42 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Stramenopiles-Gyrista</t>
+          <t>Rhizaria-Radiolaria</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Chrysophyceae</t>
+          <t>Acantharea</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Paraphysomonadales</t>
+          <t>Acantharea_4</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Paraphysomonadaceae</t>
+          <t>Acantharea_4d</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Paraphysomonas</t>
+          <t>Acantharea_4d_X</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Paraphysomonas_sp.</t>
+          <t>Acantharea_4d_X_sp.</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>FR874603</t>
+          <t>KJ763536</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>98.2</t>
+          <t>96.4</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3661,17 +3661,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>centroid=23d8fdf063f4c31a8e0dd27ced78b1d57824e557;size=155;;seqs=1</t>
+          <t>centroid=7fed04c09e172b4bfeccf67aae803f8a261498e0;size=118;;seqs=2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3686,42 +3686,42 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Stramenopiles-Gyrista</t>
+          <t>Alveolata-Dinoflagellata</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Bacillariophyceae</t>
+          <t>Dinophyceae</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Bacillariales</t>
+          <t>Dinophyceae_X</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Bacillariaceae</t>
+          <t>Dinophyceae_XX</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Fragilariopsis</t>
+          <t>Dinophyceae_XXX</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Fragilariopsis_kerguelensis</t>
+          <t>Dinophyceae_XXX_sp.</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>LR812489</t>
+          <t>KJ760412</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>96.9</t>
+          <t>94.7</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3736,17 +3736,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>centroid=7fed04c09e172b4bfeccf67aae803f8a261498e0;size=118;;seqs=2</t>
+          <t>centroid=1f22a21f27edd94e175181d06ea4fc549b0a85b0;size=57;;seqs=1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3761,42 +3761,42 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alveolata-Dinoflagellata</t>
+          <t>Telonemia-Telonemia_X</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Dinophyceae</t>
+          <t>Telonemia_XX</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Dinophyceae_X</t>
+          <t>Telonemia_XXX</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Dinophyceae_XX</t>
+          <t>Telonemia-Group-1</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Dinophyceae_XXX</t>
+          <t>Telonemia-Group-1_X</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Dinophyceae_XXX_sp.</t>
+          <t>Telonemia-Group-1_X_sp.</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>KJ760412</t>
+          <t>AJ564768</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>94.7</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3811,17 +3811,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>centroid=eb1bbd99636b34def78424628c6b16b9cd0705c9;size=45;;seqs=4</t>
+          <t>centroid=09d1b6685fa8942da6fef8b1b3eca49531dc7f85;size=27;;seqs=3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3836,42 +3836,42 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alveolata-Ciliophora</t>
+          <t>Stramenopiles-Gyrista</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Spirotrichea</t>
+          <t>Chrysophyceae</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Hypotrichia</t>
+          <t>Paraphysomonadales</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Oxytrichidae</t>
+          <t>Paraphysomonadaceae</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Orthamphisiella</t>
+          <t>Paraphysomonas</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Orthamphisiella_breviseries</t>
+          <t>Paraphysomonas_sp.</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>AY498654</t>
+          <t>FR874603</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>97.2</t>
+          <t>98.2</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3886,12 +3886,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>centroid=201233eab44673d30cbb94437787ba8b0479f375;size=25;;seqs=1</t>
+          <t>centroid=6728291d22e02c693b1cb9e8b20701501b992faf;size=15;;seqs=1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3911,42 +3911,42 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alveolata-Dinoflagellata</t>
+          <t>Alveolata-Ciliophora</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Syndiniales</t>
+          <t>Spirotrichea</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Dino-Group-I</t>
+          <t>Euplotia</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Dino-Group-I-Clade-2</t>
+          <t>Aspidiscidae</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Dino-Group-I-Clade-2_X</t>
+          <t>Aspidisca</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Dino-Group-I-Clade-2_X_sp.</t>
+          <t>Aspidisca_sp.</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>KJ757372</t>
+          <t>AB505524</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>99.6</t>
+          <t>97.4</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3961,17 +3961,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>centroid=1f22a21f27edd94e175181d06ea4fc549b0a85b0;size=57;;seqs=1</t>
+          <t>centroid=9ab515f0a0694ce13159ec95db6924fe6043f372;size=19;;seqs=2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3981,47 +3981,47 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Telonemia-Telonemia_X</t>
+          <t>Opisthokonta-Metazoa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Telonemia_XX</t>
+          <t>Nemertea</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Telonemia_XXX</t>
+          <t>Nemertea_X</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Telonemia-Group-1</t>
+          <t>Nemertea_XX</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Telonemia-Group-1_X</t>
+          <t>Oerstedia</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Telonemia-Group-1_X_sp.</t>
+          <t>Oerstedia_dorsalis</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>AJ564768</t>
+          <t>AY210448</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>96.3</t>
+          <t>98.1</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -4036,17 +4036,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>centroid=027c45ab3407f2c10cf8bd3dbd9f6107ad73e07b;size=34;;seqs=1</t>
+          <t>centroid=038703e871e1cc907ef66a785fec1f741d3babe1;size=44;;seqs=2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4056,47 +4056,47 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Excavata</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Rhizaria-Radiolaria</t>
+          <t>Discoba-Euglenozoa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>RAD-B</t>
+          <t>Diplonemea</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>RAD-B_X</t>
+          <t>Diplonemida</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>RAD-B_X_Group-IVd</t>
+          <t>Eupelagonemidae</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>RAD-B_X_Group-IVd_X</t>
+          <t>Eupelagonemidae_X</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>RAD-B_X_Group-IVd_X_sp.</t>
+          <t>Eupelagonemidae_X_sp.</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>GU246589</t>
+          <t>KY947153</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>89.1</t>
+          <t>94.2</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -4111,17 +4111,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>centroid=9d383fbea4bf96897bbba7641f1c2574548477e4;size=56;;seqs=1</t>
+          <t>centroid=690a739dd52dea149beffeefe80f8995b214030c;size=24;;seqs=4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4146,32 +4146,32 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Dino-Group-II</t>
+          <t>Dino-Group-I</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Dino-Group-II-Clade-15</t>
+          <t>Dino-Group-I-Clade-1</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Dino-Group-II-Clade-15_X</t>
+          <t>Dino-Group-I-Clade-1_X</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Dino-Group-II-Clade-15_X_sp.</t>
+          <t>Dino-Group-I-Clade-1_X_sp.</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>AB275017</t>
+          <t>KF031799</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>97.3</t>
+          <t>98.9</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4186,12 +4186,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>centroid=6728291d22e02c693b1cb9e8b20701501b992faf;size=15;;seqs=1</t>
+          <t>centroid=027c45ab3407f2c10cf8bd3dbd9f6107ad73e07b;size=34;;seqs=1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4211,42 +4211,42 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alveolata-Ciliophora</t>
+          <t>Rhizaria-Radiolaria</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Spirotrichea</t>
+          <t>RAD-B</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Euplotia</t>
+          <t>RAD-B_X</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Aspidiscidae</t>
+          <t>RAD-B_X_Group-IVd</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Aspidisca</t>
+          <t>RAD-B_X_Group-IVd_X</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Aspidisca_sp.</t>
+          <t>RAD-B_X_Group-IVd_X_sp.</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>AB505524</t>
+          <t>GU246589</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>97.4</t>
+          <t>89.1</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4261,17 +4261,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>centroid=78d4fe54070bddca52457ee10686820a9983250e;size=19;;seqs=1</t>
+          <t>centroid=eb1bbd99636b34def78424628c6b16b9cd0705c9;size=45;;seqs=4</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4286,42 +4286,42 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Rhizaria-Radiolaria</t>
+          <t>Alveolata-Ciliophora</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Acantharea</t>
+          <t>Spirotrichea</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Acantharea_4</t>
+          <t>Hypotrichia</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Acantharea_4d</t>
+          <t>Oxytrichidae</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Acantharea_4d_X</t>
+          <t>Orthamphisiella</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Acantharea_4d_X_sp.</t>
+          <t>Orthamphisiella_breviseries</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>KJ763536</t>
+          <t>AY498654</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>96.4</t>
+          <t>97.2</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4336,12 +4336,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>centroid=c03d5323adf2b66731db7cda7581d4c4cb688ce9;size=24;;seqs=1</t>
+          <t>centroid=9d383fbea4bf96897bbba7641f1c2574548477e4;size=56;;seqs=1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -4371,32 +4371,32 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Dino-Group-I</t>
+          <t>Dino-Group-II</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Dino-Group-I-Clade-1</t>
+          <t>Dino-Group-II-Clade-15</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Dino-Group-I-Clade-1_X</t>
+          <t>Dino-Group-II-Clade-15_X</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Dino-Group-I-Clade-1_X_sp.</t>
+          <t>Dino-Group-II-Clade-15_X_sp.</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>KJ761678</t>
+          <t>AB275017</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>89.5</t>
+          <t>97.3</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>centroid=db088d938dcc75fcc3e66b3620cb4007c44ccbe9;size=37;;seqs=1</t>
+          <t>centroid=23d8fdf063f4c31a8e0dd27ced78b1d57824e557;size=155;;seqs=1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4436,42 +4436,42 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Rhizaria-Cercozoa</t>
+          <t>Stramenopiles-Gyrista</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Endomyxa</t>
+          <t>Bacillariophyceae</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Filoretidae</t>
+          <t>Bacillariales</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Filoretidae_X</t>
+          <t>Bacillariaceae</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Filoreta</t>
+          <t>Fragilariopsis</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Filoreta_sp.</t>
+          <t>Fragilariopsis_kerguelensis</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>DQ504354</t>
+          <t>LR812489</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>86.4</t>
+          <t>96.9</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4486,17 +4486,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>centroid=690a739dd52dea149beffeefe80f8995b214030c;size=24;;seqs=4</t>
+          <t>centroid=201233eab44673d30cbb94437787ba8b0479f375;size=25;;seqs=1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4526,27 +4526,27 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Dino-Group-I-Clade-1</t>
+          <t>Dino-Group-I-Clade-2</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Dino-Group-I-Clade-1_X</t>
+          <t>Dino-Group-I-Clade-2_X</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Dino-Group-I-Clade-1_X_sp.</t>
+          <t>Dino-Group-I-Clade-2_X_sp.</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>KF031799</t>
+          <t>KJ757372</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>98.9</t>
+          <t>99.6</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4561,17 +4561,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>centroid=9ab515f0a0694ce13159ec95db6924fe6043f372;size=19;;seqs=2</t>
+          <t>centroid=bd6d985e296bdc86e98bdc87183073c5813e9dc0;size=17;;seqs=1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4581,47 +4581,47 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Opisthokonta-Metazoa</t>
+          <t>Rhizaria-Cercozoa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Nemertea</t>
+          <t>Endomyxa</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Nemertea_X</t>
+          <t>Filoretidae</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Nemertea_XX</t>
+          <t>Filoretidae_X</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Oerstedia</t>
+          <t>Filoreta</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Oerstedia_dorsalis</t>
+          <t>Filoreta_turcica</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>AY210448</t>
+          <t>EU567292</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>98.1</t>
+          <t>88.3</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4636,12 +4636,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>centroid=bd6d985e296bdc86e98bdc87183073c5813e9dc0;size=17;;seqs=1</t>
+          <t>centroid=db088d938dcc75fcc3e66b3620cb4007c44ccbe9;size=37;;seqs=1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4686,17 +4686,17 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Filoreta_turcica</t>
+          <t>Filoreta_sp.</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>EU567292</t>
+          <t>DQ504354</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>88.3</t>
+          <t>86.4</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>centroid=ea1fbc5ad55cfba3314f3c3b4cfcda38a36c0e51;size=12;;seqs=1</t>
+          <t>centroid=5ee2e010187ba186aeaf8abb4d721be374d5cd9f;size=12;;seqs=2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>87.4</t>
+          <t>90.9</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4936,17 +4936,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>centroid=5ee2e010187ba186aeaf8abb4d721be374d5cd9f;size=12;;seqs=2</t>
+          <t>centroid=a8309d54a35482dac390045ee1ef2c8e0bf743c5;size=9;;seqs=1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4956,47 +4956,47 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Rhizaria-Cercozoa</t>
+          <t>Opisthokonta-Metazoa</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Endomyxa</t>
+          <t>Brachiopoda</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Filoretidae</t>
+          <t>Brachiopoda_X</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Filoretidae_X</t>
+          <t>Brachiopoda_XX</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Filoreta</t>
+          <t>Novocrania</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Filoreta_sp.</t>
+          <t>Novocrania_sp.</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>DQ504354</t>
+          <t>HQ852063</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>90.9</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -5011,17 +5011,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>centroid=10ff2ba430f212c6eb969eb0dc9f9d4b1689c734;size=6;;seqs=2</t>
+          <t>centroid=ea1fbc5ad55cfba3314f3c3b4cfcda38a36c0e51;size=12;;seqs=1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5031,47 +5031,47 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Opisthokonta-Metazoa</t>
+          <t>Rhizaria-Cercozoa</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Platyhelminthes</t>
+          <t>Endomyxa</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Turbellaria</t>
+          <t>Filoretidae</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Acoelomorpha</t>
+          <t>Filoretidae_X</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Haplogonaria</t>
+          <t>Filoreta</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Haplogonaria_sp.</t>
+          <t>Filoreta_sp.</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>FR837700</t>
+          <t>DQ504354</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>93.9</t>
+          <t>87.4</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -5086,17 +5086,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>centroid=a8309d54a35482dac390045ee1ef2c8e0bf743c5;size=9;;seqs=1</t>
+          <t>centroid=10ff2ba430f212c6eb969eb0dc9f9d4b1689c734;size=6;;seqs=2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -5116,37 +5116,37 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Brachiopoda</t>
+          <t>Platyhelminthes</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Brachiopoda_X</t>
+          <t>Turbellaria</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Brachiopoda_XX</t>
+          <t>Acoelomorpha</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Novocrania</t>
+          <t>Haplogonaria</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Novocrania_sp.</t>
+          <t>Haplogonaria_sp.</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>HQ852063</t>
+          <t>FR837700</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>93.9</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -5161,17 +5161,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>centroid=047105ff400bd05fe7b2d4997eee06698dce2ac4;size=77;;seqs=1</t>
+          <t>centroid=b31cffb498604286d1beb6a3cea1c23ae3db2e28;size=201;;seqs=2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>201</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -5186,42 +5186,42 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Opisthokonta-Fungi</t>
+          <t>Opisthokonta-Metazoa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Fungi_X</t>
+          <t>Arthropoda</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Fungi_XX</t>
+          <t>Crustacea</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Fungi_XXX</t>
+          <t>Ostracoda</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Nucleophaga</t>
+          <t>Cypretta</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Nucleophaga_terricolae</t>
+          <t>Cypretta_seurati</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>KX017226</t>
+          <t>AB674999</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>82.8</t>
+          <t>97.1</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -5236,12 +5236,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>centroid=69dd95aced437629ff3e2c7489d181023242dee0;size=24;;seqs=1</t>
+          <t>centroid=c45600f336a8adf13e61bb0ab04ae165fe2b9769;size=23;;seqs=1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5256,47 +5256,47 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Opisthokonta-Metazoa</t>
+          <t>Stramenopiles-Gyrista</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Nematoda</t>
+          <t>Peronosporomycetes</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Enoplea</t>
+          <t>Peronosporomycetes_X</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Enoplea_X</t>
+          <t>Peronosporales</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Eucoleus</t>
+          <t>Sapromyces</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Eucoleus_dispar</t>
+          <t>Sapromyces_elongatus</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>EU004821</t>
+          <t>AB548399</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>83.5</t>
+          <t>99.9</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5311,12 +5311,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>centroid=32236fb60875a15d4e9a4501a1efd9ee34481ffe;size=19;;seqs=1</t>
+          <t>centroid=2fa2bb98d49d32282c5913f75492abd66e5879ae;size=24;;seqs=1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -5331,47 +5331,47 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Alveolata-Ciliophora</t>
+          <t>Opisthokonta-Metazoa</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Oligohymenophorea</t>
+          <t>Arthropoda</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Peritrichia_2</t>
+          <t>Chelicerata</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Sessilida</t>
+          <t>Arachnida</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Ophrydium</t>
+          <t>Naiadacarus</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Ophrydium_versatile</t>
+          <t>Naiadacarus_arboricola</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>AF401526</t>
+          <t>JQ000114</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>99.1</t>
+          <t>98.5</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5386,12 +5386,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>centroid=2fa2bb98d49d32282c5913f75492abd66e5879ae;size=24;;seqs=1</t>
+          <t>centroid=fadd6eb800c5e7a858c1d825f5cd467c03ed9685;size=40;;seqs=1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5411,42 +5411,42 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Opisthokonta-Metazoa</t>
+          <t>Opisthokonta-Fungi</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Arthropoda</t>
+          <t>Fungi_X</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Chelicerata</t>
+          <t>Fungi_XX</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Arachnida</t>
+          <t>Fungi_XXX</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Naiadacarus</t>
+          <t>Fungi_XXXX</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Naiadacarus_arboricola</t>
+          <t>Fungi_XXXX_sp.</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>JQ000114</t>
+          <t>KC671706</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>98.5</t>
+          <t>96.4</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5461,17 +5461,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>centroid=53e5a2251323c7c50f3c916a081380bf836cd70f;size=21;;seqs=4</t>
+          <t>centroid=969e7b5ab199dc89e59461f9c46c9c5830f73508;size=26;;seqs=1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5486,42 +5486,42 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Stramenopiles-Gyrista</t>
+          <t>Alveolata-Ciliophora</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Chrysophyceae</t>
+          <t>Spirotrichea</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Hibberdiales</t>
+          <t>Oligotrichida</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Hibberdiaceae</t>
+          <t>Oligotrichida_X</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Chrysocapsa</t>
+          <t>Oligotrichida_XX</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Chrysocapsa_wetherbeei</t>
+          <t>Oligotrichida_XX_sp.</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>EF165145</t>
+          <t>AY919741</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>96.8</t>
+          <t>97.7</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5536,17 +5536,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>centroid=65051e34db1c29c2d19c2e9bc4f4e05855089ede;size=23;;seqs=4</t>
+          <t>centroid=23d8fdf063f4c31a8e0dd27ced78b1d57824e557;size=25;;seqs=1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5556,47 +5556,47 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Opisthokonta-Fungi</t>
+          <t>Stramenopiles-Gyrista</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Ascomycota</t>
+          <t>Bacillariophyceae</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Pezizomycotina</t>
+          <t>Bacillariales</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Pezizomycetes</t>
+          <t>Bacillariaceae</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Miladina</t>
+          <t>Fragilariopsis</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Miladina_lecithina</t>
+          <t>Fragilariopsis_kerguelensis</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>DQ646538</t>
+          <t>LR812489</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>96.2</t>
+          <t>96.9</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5611,12 +5611,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>centroid=23d8fdf063f4c31a8e0dd27ced78b1d57824e557;size=25;;seqs=1</t>
+          <t>centroid=047105ff400bd05fe7b2d4997eee06698dce2ac4;size=77;;seqs=1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -5631,47 +5631,47 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Stramenopiles-Gyrista</t>
+          <t>Opisthokonta-Fungi</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Bacillariophyceae</t>
+          <t>Fungi_X</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Bacillariales</t>
+          <t>Fungi_XX</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Bacillariaceae</t>
+          <t>Fungi_XXX</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Fragilariopsis</t>
+          <t>Nucleophaga</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Fragilariopsis_kerguelensis</t>
+          <t>Nucleophaga_terricolae</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>LR812489</t>
+          <t>KX017226</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>96.9</t>
+          <t>82.8</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5686,12 +5686,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>centroid=969e7b5ab199dc89e59461f9c46c9c5830f73508;size=26;;seqs=1</t>
+          <t>centroid=32236fb60875a15d4e9a4501a1efd9ee34481ffe;size=19;;seqs=1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -5716,37 +5716,37 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Spirotrichea</t>
+          <t>Oligohymenophorea</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Oligotrichida</t>
+          <t>Peritrichia_2</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Oligotrichida_X</t>
+          <t>Sessilida</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Oligotrichida_XX</t>
+          <t>Ophrydium</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Oligotrichida_XX_sp.</t>
+          <t>Ophrydium_versatile</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>AY919741</t>
+          <t>AF401526</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>97.7</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5761,12 +5761,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>centroid=fadd6eb800c5e7a858c1d825f5cd467c03ed9685;size=40;;seqs=1</t>
+          <t>centroid=69dd95aced437629ff3e2c7489d181023242dee0;size=24;;seqs=1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -5786,42 +5786,42 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Opisthokonta-Fungi</t>
+          <t>Opisthokonta-Metazoa</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Fungi_X</t>
+          <t>Nematoda</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Fungi_XX</t>
+          <t>Enoplea</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Fungi_XXX</t>
+          <t>Enoplea_X</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Fungi_XXXX</t>
+          <t>Eucoleus</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Fungi_XXXX_sp.</t>
+          <t>Eucoleus_dispar</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>KC671706</t>
+          <t>EU004821</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>96.4</t>
+          <t>83.5</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5836,17 +5836,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>centroid=55b768dc0a9885fbdd42cd1c68ba62fd67052e39;size=94;;seqs=10</t>
+          <t>centroid=65051e34db1c29c2d19c2e9bc4f4e05855089ede;size=23;;seqs=4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5866,37 +5866,37 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Basidiomycota</t>
+          <t>Ascomycota</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Agaricomycotina</t>
+          <t>Pezizomycotina</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Agaricomycetes</t>
+          <t>Pezizomycetes</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Agrocybe</t>
+          <t>Miladina</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Agrocybe_erebia</t>
+          <t>Miladina_lecithina</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>DQ440631</t>
+          <t>DQ646538</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>98.3</t>
+          <t>96.2</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5911,17 +5911,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>centroid=b31cffb498604286d1beb6a3cea1c23ae3db2e28;size=201;;seqs=2</t>
+          <t>centroid=53e5a2251323c7c50f3c916a081380bf836cd70f;size=21;;seqs=4</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5931,47 +5931,47 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Opisthokonta-Metazoa</t>
+          <t>Stramenopiles-Gyrista</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Arthropoda</t>
+          <t>Chrysophyceae</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Crustacea</t>
+          <t>Hibberdiales</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Ostracoda</t>
+          <t>Hibberdiaceae</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Cypretta</t>
+          <t>Chrysocapsa</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Cypretta_seurati</t>
+          <t>Chrysocapsa_wetherbeei</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>AB674999</t>
+          <t>EF165145</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>97.1</t>
+          <t>96.8</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5986,17 +5986,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>centroid=a48892d158203710cd1aa986da6a54e8bb270f04;size=21;;seqs=8</t>
+          <t>centroid=55b768dc0a9885fbdd42cd1c68ba62fd67052e39;size=94;;seqs=10</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -6006,47 +6006,47 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Alveolata-Apicomplexa</t>
+          <t>Opisthokonta-Fungi</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Gregarinomorphea</t>
+          <t>Basidiomycota</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Neogregarinorida</t>
+          <t>Agaricomycotina</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Actinocephalidae</t>
+          <t>Agaricomycetes</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Monocystis</t>
+          <t>Agrocybe</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Monocystis_sp.</t>
+          <t>Agrocybe_erebia</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>EF024338</t>
+          <t>DQ440631</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>96.4</t>
+          <t>98.3</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -6061,17 +6061,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>centroid=c45600f336a8adf13e61bb0ab04ae165fe2b9769;size=23;;seqs=1</t>
+          <t>centroid=a48892d158203710cd1aa986da6a54e8bb270f04;size=21;;seqs=8</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -6086,42 +6086,42 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Stramenopiles-Gyrista</t>
+          <t>Alveolata-Apicomplexa</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Peronosporomycetes</t>
+          <t>Gregarinomorphea</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Peronosporomycetes_X</t>
+          <t>Neogregarinorida</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Peronosporales</t>
+          <t>Actinocephalidae</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Sapromyces</t>
+          <t>Monocystis</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Sapromyces_elongatus</t>
+          <t>Monocystis_sp.</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>AB548399</t>
+          <t>EF024338</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>99.9</t>
+          <t>96.4</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -6436,12 +6436,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>centroid=7a70651bab4348bd138153765e1c9e69db7e0383;size=30;;seqs=1</t>
+          <t>centroid=e620dcdc081cbfe3953ce43a00c8dff740862c22;size=49;;seqs=1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -6461,42 +6461,42 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Alveolata-Apicomplexa</t>
+          <t>Alveolata-Ciliophora</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Gregarinomorphea</t>
+          <t>Prostomatea_3</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Neogregarinorida</t>
+          <t>Prostomatea_3_X</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Actinocephalidae</t>
+          <t>Holophryidae</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Monocystis</t>
+          <t>Pelagothrix</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Monocystis_sp.</t>
+          <t>Pelagothrix_alveolata</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>EU910605</t>
+          <t>AB486009</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>96.1</t>
+          <t>95.9</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6511,17 +6511,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>centroid=076af2b259d14551bbc642658e5ad80ae1fe7829;size=43;;seqs=2</t>
+          <t>centroid=eb514c96f4cc2b405ae37ce18e637a891a3a4850;size=38;;seqs=1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -6531,47 +6531,47 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Opisthokonta-Metazoa</t>
+          <t>Alveolata-Ciliophora</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Gastrotricha</t>
+          <t>Litostomatea</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Gastrotricha_X</t>
+          <t>Litostomatea_X</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Gastrotricha_XX</t>
+          <t>Litostomatea_XX</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Chaetonotus</t>
+          <t>Spathidium</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Chaetonotus_hystrix</t>
+          <t>Spathidium_stammeri</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>JQ798557</t>
+          <t>DQ411862</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>98.8</t>
+          <t>97.8</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6661,12 +6661,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>centroid=eb514c96f4cc2b405ae37ce18e637a891a3a4850;size=38;;seqs=1</t>
+          <t>centroid=dba1327aa20001526aa68d4133fb8e9c3a210f70;size=33;;seqs=1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -6681,47 +6681,47 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Alveolata-Ciliophora</t>
+          <t>Opisthokonta-Metazoa</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Litostomatea</t>
+          <t>Platyhelminthes</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Litostomatea_X</t>
+          <t>Turbellaria</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Litostomatea_XX</t>
+          <t>Rhabdocoela</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Spathidium</t>
+          <t>Castrada</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Spathidium_stammeri</t>
+          <t>Castrada_hofmanni</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>DQ411862</t>
+          <t>KC529496</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>97.8</t>
+          <t>99.6</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6736,12 +6736,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>centroid=dba1327aa20001526aa68d4133fb8e9c3a210f70;size=33;;seqs=1</t>
+          <t>centroid=8311576854682f983ba9104e277c900be4282c16;size=46;;seqs=1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -6756,47 +6756,47 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>Excavata</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Opisthokonta-Metazoa</t>
+          <t>Discoba-Euglenozoa</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Platyhelminthes</t>
+          <t>Euglenida</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Turbellaria</t>
+          <t>Euglenophyceae</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Rhabdocoela</t>
+          <t>Phacaceae</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Castrada</t>
+          <t>Lepocinclis</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Castrada_hofmanni</t>
+          <t>Lepocinclis_acus</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>KC529496</t>
+          <t>AF152104</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>99.6</t>
+          <t>88.1</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6811,12 +6811,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>centroid=6adcfe6db4240faef06cb389b5af03cfcd37aad6;size=34;;seqs=1</t>
+          <t>centroid=42d0c596b6bd017ebb2b79e0f84c3dc124b1814a;size=56;;seqs=1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -6831,47 +6831,47 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Rhizaria-Cercozoa</t>
+          <t>Opisthokonta-Fungi</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Filosa-Sarcomonadea</t>
+          <t>Ascomycota</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Glissomonadida</t>
+          <t>Pezizomycotina</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Sandonidae</t>
+          <t>Leotiomycetes</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Flectomonas</t>
+          <t>Tetracladium</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Flectomonas_ekelundi</t>
+          <t>Tetracladium_setigerum</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>HM536169</t>
+          <t>AF388574</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>98.4</t>
+          <t>96.9</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6886,17 +6886,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>centroid=9ee7db4ce2e6e7eba8bfbe69c7864c5de1c11acf;size=28;;seqs=1</t>
+          <t>centroid=076af2b259d14551bbc642658e5ad80ae1fe7829;size=43;;seqs=2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -6906,47 +6906,47 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Stramenopiles-Gyrista</t>
+          <t>Opisthokonta-Metazoa</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Eustigmatophyceae</t>
+          <t>Gastrotricha</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Eustigmatophyceae_X</t>
+          <t>Gastrotricha_X</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Eustigmatophyceae_XX</t>
+          <t>Gastrotricha_XX</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Nannochloropsis</t>
+          <t>Chaetonotus</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Nannochloropsis_oceanica</t>
+          <t>Chaetonotus_hystrix</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>AB052273</t>
+          <t>JQ798557</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>96.1</t>
+          <t>98.8</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6961,17 +6961,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>centroid=4c2a73246998163dbfe7b21cd0d9ac2cccdbefbb;size=28;;seqs=4</t>
+          <t>centroid=7a70651bab4348bd138153765e1c9e69db7e0383;size=30;;seqs=1</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6986,42 +6986,42 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Alveolata-Dinoflagellata</t>
+          <t>Alveolata-Apicomplexa</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Dinophyceae</t>
+          <t>Gregarinomorphea</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Peridiniales</t>
+          <t>Neogregarinorida</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Thoracosphaeraceae</t>
+          <t>Actinocephalidae</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Scrippsiella</t>
+          <t>Monocystis</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Scrippsiella_sp.</t>
+          <t>Monocystis_sp.</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>HM483396</t>
+          <t>EU910605</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>97.8</t>
+          <t>96.1</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -7036,12 +7036,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>centroid=b5f6a34b9592c858a77d03ed458dc6207297a96e;size=36;;seqs=1</t>
+          <t>centroid=a4d2082a11d937cf3681cff5e1bbad228bf7f516;size=47;;seqs=1</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -7056,47 +7056,47 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Opisthokonta-Metazoa</t>
+          <t>Alveolata-Ciliophora</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Bryozoa</t>
+          <t>Heterotrichea</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Bryozoa_X</t>
+          <t>Heterotrichea_X</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Bryozoa_XX</t>
+          <t>Spirostomidae</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Plumatella</t>
+          <t>Spirostomum</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Plumatella_geimermassardi</t>
+          <t>Spirostomum_semivirescens</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>KC461942</t>
+          <t>MH295830</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>98.6</t>
+          <t>98.7</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -7111,12 +7111,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>centroid=e620dcdc081cbfe3953ce43a00c8dff740862c22;size=49;;seqs=1</t>
+          <t>centroid=6adcfe6db4240faef06cb389b5af03cfcd37aad6;size=34;;seqs=1</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -7136,42 +7136,42 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Alveolata-Ciliophora</t>
+          <t>Rhizaria-Cercozoa</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Prostomatea_3</t>
+          <t>Filosa-Sarcomonadea</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Prostomatea_3_X</t>
+          <t>Glissomonadida</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Holophryidae</t>
+          <t>Sandonidae</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Pelagothrix</t>
+          <t>Flectomonas</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Pelagothrix_alveolata</t>
+          <t>Flectomonas_ekelundi</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>AB486009</t>
+          <t>HM536169</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>95.9</t>
+          <t>98.4</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -7186,12 +7186,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>centroid=42d0c596b6bd017ebb2b79e0f84c3dc124b1814a;size=56;;seqs=1</t>
+          <t>centroid=b5f6a34b9592c858a77d03ed458dc6207297a96e;size=36;;seqs=1</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -7211,42 +7211,42 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Opisthokonta-Fungi</t>
+          <t>Opisthokonta-Metazoa</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Ascomycota</t>
+          <t>Bryozoa</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Pezizomycotina</t>
+          <t>Bryozoa_X</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Leotiomycetes</t>
+          <t>Bryozoa_XX</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Tetracladium</t>
+          <t>Plumatella</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Tetracladium_setigerum</t>
+          <t>Plumatella_geimermassardi</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>AF388574</t>
+          <t>KC461942</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>96.9</t>
+          <t>98.6</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>centroid=b92145bce559c7d0689e4f721bd92911e8ad4081;size=28;;seqs=2</t>
+          <t>centroid=9ee7db4ce2e6e7eba8bfbe69c7864c5de1c11acf;size=28;;seqs=1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -7271,7 +7271,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -7281,47 +7281,47 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Archaeplastida</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Streptophyta-Streptophyta_X</t>
+          <t>Stramenopiles-Gyrista</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Zygnemophyceae</t>
+          <t>Eustigmatophyceae</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Zygnemophyceae_X</t>
+          <t>Eustigmatophyceae_X</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Zygnemophyceae_XX</t>
+          <t>Eustigmatophyceae_XX</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Spirogyra</t>
+          <t>Nannochloropsis</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Spirogyra_sp.</t>
+          <t>Nannochloropsis_oceanica</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>JQ239055</t>
+          <t>AB052273</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>99.4</t>
+          <t>96.1</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7336,17 +7336,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>centroid=a4d2082a11d937cf3681cff5e1bbad228bf7f516;size=47;;seqs=1</t>
+          <t>centroid=b92145bce559c7d0689e4f721bd92911e8ad4081;size=28;;seqs=2</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -7356,47 +7356,47 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Archaeplastida</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Alveolata-Ciliophora</t>
+          <t>Streptophyta-Streptophyta_X</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Heterotrichea</t>
+          <t>Zygnemophyceae</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Heterotrichea_X</t>
+          <t>Zygnemophyceae_X</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Spirostomidae</t>
+          <t>Zygnemophyceae_XX</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Spirostomum</t>
+          <t>Spirogyra</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Spirostomum_semivirescens</t>
+          <t>Spirogyra_sp.</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>MH295830</t>
+          <t>JQ239055</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>98.7</t>
+          <t>99.4</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7486,17 +7486,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>centroid=8311576854682f983ba9104e277c900be4282c16;size=46;;seqs=1</t>
+          <t>centroid=4c2a73246998163dbfe7b21cd0d9ac2cccdbefbb;size=28;;seqs=4</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -7506,47 +7506,47 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Excavata</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Discoba-Euglenozoa</t>
+          <t>Alveolata-Dinoflagellata</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Euglenida</t>
+          <t>Dinophyceae</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Euglenophyceae</t>
+          <t>Peridiniales</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Phacaceae</t>
+          <t>Thoracosphaeraceae</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Lepocinclis</t>
+          <t>Scrippsiella</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Lepocinclis_acus</t>
+          <t>Scrippsiella_sp.</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>AF152104</t>
+          <t>HM483396</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>88.1</t>
+          <t>97.8</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7636,12 +7636,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>centroid=09705c21cd034a76b20d2888d4fbf55e6cc5bf22;size=18;;seqs=1</t>
+          <t>centroid=4b30428f236ad2ff5a31c535b280f5946c637c70;size=23;;seqs=1</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -7671,27 +7671,27 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Chelicerata</t>
+          <t>Crustacea</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Arachnida</t>
+          <t>Ostracoda</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Hydrozetes</t>
+          <t>Cypridopsis</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Hydrozetes_lacustris</t>
+          <t>Cypridopsis_uenoi</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>EU433987</t>
+          <t>AB674996</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7711,17 +7711,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>centroid=50a47aedac1bd064905b8b51af5ddb561e1f581b;size=15;;seqs=1</t>
+          <t>centroid=49982c0365d6ec7809f8cc2beae864ba512d3cec;size=17;;seqs=4</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -7736,42 +7736,42 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Alveolata-Apicomplexa</t>
+          <t>Alveolata-Ciliophora</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Gregarinomorphea</t>
+          <t>Spirotrichea</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Neogregarinorida</t>
+          <t>Hypotrichia</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Actinocephalidae</t>
+          <t>Oxytrichidae</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Hoplorhynchus</t>
+          <t>Oxytricha</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Hoplorhynchus_acanthatholius</t>
+          <t>Oxytricha_longigranulosa</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>FJ459750</t>
+          <t>AM412766</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>98.6</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7786,17 +7786,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>centroid=49982c0365d6ec7809f8cc2beae864ba512d3cec;size=17;;seqs=4</t>
+          <t>centroid=50a47aedac1bd064905b8b51af5ddb561e1f581b;size=15;;seqs=1</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -7811,42 +7811,42 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Alveolata-Ciliophora</t>
+          <t>Alveolata-Apicomplexa</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Spirotrichea</t>
+          <t>Gregarinomorphea</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Hypotrichia</t>
+          <t>Neogregarinorida</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Oxytrichidae</t>
+          <t>Actinocephalidae</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Oxytricha</t>
+          <t>Hoplorhynchus</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Oxytricha_longigranulosa</t>
+          <t>Hoplorhynchus_acanthatholius</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>AM412766</t>
+          <t>FJ459750</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>99.1</t>
+          <t>98.6</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7861,12 +7861,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>centroid=704efb0bd74eadce97faf978c7994e46da5b18de;size=11;;seqs=1</t>
+          <t>centroid=52941c341b879c301ef9969dda1dd9b14ca3a5b5;size=17;;seqs=1</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -7881,47 +7881,47 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Alveolata-Ciliophora</t>
+          <t>Opisthokonta-Fungi</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Karyorelictea</t>
+          <t>Ascomycota</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Karyorelictea_X</t>
+          <t>Saccharomycotina</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Loxodidae</t>
+          <t>Saccharomycetales</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Loxodes</t>
+          <t>Candida</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Loxodes_striatus</t>
+          <t>Candida_torresii</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>AM946031</t>
+          <t>AB013540</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>99.1</t>
+          <t>92.5</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7936,17 +7936,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>centroid=ac8537b887eb8dfd3c6a4553ec172bcb636869bb;size=9;;seqs=3</t>
+          <t>centroid=09705c21cd034a76b20d2888d4fbf55e6cc5bf22;size=18;;seqs=1</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -7956,47 +7956,47 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Alveolata-Ciliophora</t>
+          <t>Opisthokonta-Metazoa</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Heterotrichea</t>
+          <t>Arthropoda</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Heterotrichea_X</t>
+          <t>Chelicerata</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Stentoridae</t>
+          <t>Arachnida</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Stentor</t>
+          <t>Hydrozetes</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Stentor_polymorphus</t>
+          <t>Hydrozetes_lacustris</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>AF357144</t>
+          <t>EU433987</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>99.1</t>
+          <t>99.9</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -8011,17 +8011,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>centroid=52941c341b879c301ef9969dda1dd9b14ca3a5b5;size=17;;seqs=1</t>
+          <t>centroid=ac8537b887eb8dfd3c6a4553ec172bcb636869bb;size=9;;seqs=3</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -8031,47 +8031,47 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Opisthokonta-Fungi</t>
+          <t>Alveolata-Ciliophora</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Ascomycota</t>
+          <t>Heterotrichea</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Saccharomycotina</t>
+          <t>Heterotrichea_X</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Saccharomycetales</t>
+          <t>Stentoridae</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Candida</t>
+          <t>Stentor</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Candida_torresii</t>
+          <t>Stentor_polymorphus</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>AB013540</t>
+          <t>AF357144</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>92.5</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -8086,12 +8086,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>centroid=1eeb1df4c4f1e0af8ceab2a8c74a01daa9448fc7;size=6;;seqs=1</t>
+          <t>centroid=318930a91b175b306c9ca52d4322bb97481301fb;size=353;;seqs=1</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>353</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -8111,42 +8111,42 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Alveolata-Ciliophora</t>
+          <t>Stramenopiles-Gyrista</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Spirotrichea</t>
+          <t>Bacillariophyceae</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Euplotia</t>
+          <t>Bacillariales</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Euplotidae</t>
+          <t>Bacillariaceae</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Euplotes</t>
+          <t>Fragilariopsis</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Euplotes_daidaleos</t>
+          <t>Fragilariopsis_kerguelensis</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>FR873718</t>
+          <t>LR812489</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>99.9</t>
+          <t>95.7</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -8161,12 +8161,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>centroid=4b30428f236ad2ff5a31c535b280f5946c637c70;size=23;;seqs=1</t>
+          <t>centroid=b59f2e5897c6f09f88fe17bb1ab336756eec85ea;size=89;;seqs=1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -8181,47 +8181,47 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Opisthokonta-Metazoa</t>
+          <t>Stramenopiles-Gyrista</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Arthropoda</t>
+          <t>Bacillariophyceae</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Crustacea</t>
+          <t>Bacillariales</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Ostracoda</t>
+          <t>Bacillariaceae</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Cypridopsis</t>
+          <t>Fragilariopsis</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Cypridopsis_uenoi</t>
+          <t>Fragilariopsis_kerguelensis</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>AB674996</t>
+          <t>LR812489</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>99.9</t>
+          <t>95.7</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -8236,12 +8236,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>centroid=318930a91b175b306c9ca52d4322bb97481301fb;size=353;;seqs=1</t>
+          <t>centroid=704efb0bd74eadce97faf978c7994e46da5b18de;size=11;;seqs=1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -8261,42 +8261,42 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Stramenopiles-Gyrista</t>
+          <t>Alveolata-Ciliophora</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Bacillariophyceae</t>
+          <t>Karyorelictea</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Bacillariales</t>
+          <t>Karyorelictea_X</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Bacillariaceae</t>
+          <t>Loxodidae</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Fragilariopsis</t>
+          <t>Loxodes</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Fragilariopsis_kerguelensis</t>
+          <t>Loxodes_striatus</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>LR812489</t>
+          <t>AM946031</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>95.7</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -8311,12 +8311,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>centroid=b59f2e5897c6f09f88fe17bb1ab336756eec85ea;size=89;;seqs=1</t>
+          <t>centroid=0d26c57fa56448efa4df25b3f173892afff13270;size=14;;seqs=1</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -8331,47 +8331,47 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Stramenopiles-Gyrista</t>
+          <t>Opisthokonta-Fungi</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Bacillariophyceae</t>
+          <t>Fungi_X</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Bacillariales</t>
+          <t>Fungi_XX</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Bacillariaceae</t>
+          <t>Fungi_XXX</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Fragilariopsis</t>
+          <t>Fungi_XXXX</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Fragilariopsis_kerguelensis</t>
+          <t>Fungi_XXXX_sp.</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>LR812489</t>
+          <t>AB695514</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>95.7</t>
+          <t>87.6</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8386,12 +8386,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>centroid=0d26c57fa56448efa4df25b3f173892afff13270;size=14;;seqs=1</t>
+          <t>centroid=1eeb1df4c4f1e0af8ceab2a8c74a01daa9448fc7;size=6;;seqs=1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -8406,47 +8406,47 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Opisthokonta-Fungi</t>
+          <t>Alveolata-Ciliophora</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Fungi_X</t>
+          <t>Spirotrichea</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Fungi_XX</t>
+          <t>Euplotia</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Fungi_XXX</t>
+          <t>Euplotidae</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Fungi_XXXX</t>
+          <t>Euplotes</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Fungi_XXXX_sp.</t>
+          <t>Euplotes_daidaleos</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>AB695514</t>
+          <t>FR873718</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>87.6</t>
+          <t>99.9</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8536,17 +8536,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>centroid=5f3cebfdf199ae089b8e5d10234bff2621865355;size=91;;seqs=14</t>
+          <t>centroid=594f681570dbea156aa768940d42326bd837b494;size=17;;seqs=1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -8556,47 +8556,47 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Opisthokonta-Fungi</t>
+          <t>Alveolata-Perkinsea</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Ascomycota</t>
+          <t>Perkinsida</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Pezizomycotina</t>
+          <t>Perkinsida_X</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Dothideomycetes</t>
+          <t>Perkinsida_XX</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Letendraea</t>
+          <t>Perkinsida_XXX</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Letendraea_helminthicola</t>
+          <t>Perkinsida_XXX_sp.</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>AY016345</t>
+          <t>DQ244038</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>98.5</t>
+          <t>92.1</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8611,17 +8611,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>centroid=36147e838a2be0a5def9927aa33b25f8229e329b;size=25;;seqs=16</t>
+          <t>centroid=7768aa3a13758d83cd527d18b93df4e54a4d58ac;size=22;;seqs=1</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -8631,47 +8631,47 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Opisthokonta-Fungi</t>
+          <t>Rhizaria-Cercozoa</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Ascomycota</t>
+          <t>Filosa-Sarcomonadea</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Pezizomycotina</t>
+          <t>Glissomonadida</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Dothideomycetes</t>
+          <t>Allapsidae</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Dothideomycetes_X</t>
+          <t>Allapsidae_X</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Dothideomycetes_X_sp.</t>
+          <t>Allapsidae_X_sp.</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>D49657</t>
+          <t>AB695526</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>97.3</t>
+          <t>97.6</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8686,17 +8686,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>centroid=7768aa3a13758d83cd527d18b93df4e54a4d58ac;size=22;;seqs=1</t>
+          <t>centroid=72efcb77ab39ada68c7076e6f56047c75f265b2f;size=19;;seqs=7</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -8711,42 +8711,42 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Rhizaria-Cercozoa</t>
+          <t>Alveolata-Apicomplexa</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Filosa-Sarcomonadea</t>
+          <t>Gregarinomorphea</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Glissomonadida</t>
+          <t>Neogregarinorida</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Allapsidae</t>
+          <t>Actinocephalidae</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Allapsidae_X</t>
+          <t>Monocystis</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Allapsidae_X_sp.</t>
+          <t>Monocystis_sp.</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>AB695526</t>
+          <t>EF024116</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>97.6</t>
+          <t>98.1</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8761,17 +8761,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>centroid=72efcb77ab39ada68c7076e6f56047c75f265b2f;size=19;;seqs=7</t>
+          <t>centroid=0d26c57fa56448efa4df25b3f173892afff13270;size=17;;seqs=1</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -8781,47 +8781,47 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Alveolata-Apicomplexa</t>
+          <t>Opisthokonta-Fungi</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Gregarinomorphea</t>
+          <t>Fungi_X</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Neogregarinorida</t>
+          <t>Fungi_XX</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Actinocephalidae</t>
+          <t>Fungi_XXX</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Monocystis</t>
+          <t>Fungi_XXXX</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Monocystis_sp.</t>
+          <t>Fungi_XXXX_sp.</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>EF024116</t>
+          <t>AB695514</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>98.1</t>
+          <t>87.6</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8911,17 +8911,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>centroid=594f681570dbea156aa768940d42326bd837b494;size=17;;seqs=1</t>
+          <t>centroid=5f3cebfdf199ae089b8e5d10234bff2621865355;size=91;;seqs=14</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -8931,47 +8931,47 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Alveolata-Perkinsea</t>
+          <t>Opisthokonta-Fungi</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Perkinsida</t>
+          <t>Ascomycota</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Perkinsida_X</t>
+          <t>Pezizomycotina</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Perkinsida_XX</t>
+          <t>Dothideomycetes</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Perkinsida_XXX</t>
+          <t>Letendraea</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Perkinsida_XXX_sp.</t>
+          <t>Letendraea_helminthicola</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>DQ244038</t>
+          <t>AY016345</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>92.1</t>
+          <t>98.5</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8986,17 +8986,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>centroid=0d26c57fa56448efa4df25b3f173892afff13270;size=17;;seqs=1</t>
+          <t>centroid=36147e838a2be0a5def9927aa33b25f8229e329b;size=25;;seqs=16</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -9016,37 +9016,37 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Fungi_X</t>
+          <t>Ascomycota</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Fungi_XX</t>
+          <t>Pezizomycotina</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Fungi_XXX</t>
+          <t>Dothideomycetes</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Fungi_XXXX</t>
+          <t>Dothideomycetes_X</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Fungi_XXXX_sp.</t>
+          <t>Dothideomycetes_X_sp.</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>AB695514</t>
+          <t>D49657</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>87.6</t>
+          <t>97.3</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -9361,17 +9361,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>centroid=71a70e65fa833817c229d9f99d66ad21963be64b;size=23;;seqs=2</t>
+          <t>centroid=48ffe3b392ff6086323c3b69b5d695f276de993c;size=38;;seqs=1</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -9381,47 +9381,47 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Alveolata-Dinoflagellata</t>
+          <t>Opisthokonta-Metazoa</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Syndiniales</t>
+          <t>Arthropoda</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Dino-Group-I</t>
+          <t>Crustacea</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Dino-Group-I-Clade-1</t>
+          <t>Ostracoda</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Dino-Group-I-Clade-1_X</t>
+          <t>Polycope</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Dino-Group-I-Clade-1_X_sp.</t>
+          <t>Polycope_sp.</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>KF031740</t>
+          <t>AF363310</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>97.0</t>
+          <t>92.4</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -9436,17 +9436,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>centroid=5d82a95100edc13ca22f780436e37a7a99fbf160;size=42;;seqs=1</t>
+          <t>centroid=60d1564251dc90da598f9a9958765f2585157298;size=15;;seqs=2</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -9461,42 +9461,42 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Rhizaria-Cercozoa</t>
+          <t>Alveolata-Dinoflagellata</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Filosa-Imbricatea</t>
+          <t>Syndiniales</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Thaumatomonadida</t>
+          <t>Dino-Group-I</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Thaumatomonadidae</t>
+          <t>Dino-Group-I-Clade-2</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Reckertia</t>
+          <t>Dino-Group-I-Clade-2_X</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Reckertia_filosa</t>
+          <t>Dino-Group-I-Clade-2_X_sp.</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>AY268040</t>
+          <t>KJ759860</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>90.7</t>
+          <t>97.7</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -9586,17 +9586,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>centroid=c8f2fd758bf829f7ae199a378831b742ab9b41c7;size=37;;seqs=1</t>
+          <t>centroid=74b4e603ccc17753aeee7fc2351df6665b13e81c;size=31;;seqs=2</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -9611,42 +9611,42 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Rhizaria-Radiolaria</t>
+          <t>Stramenopiles-Gyrista</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>RAD-B</t>
+          <t>Chrysophyceae</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>RAD-B_X</t>
+          <t>Paraphysomonadales</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>RAD-B_X_Group-IVd</t>
+          <t>Paraphysomonadaceae</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>RAD-B_X_Group-IVd_X</t>
+          <t>Paraphysomonas</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>RAD-B_X_Group-IVd_X_sp.</t>
+          <t>Paraphysomonas_sp.</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>GU246589</t>
+          <t>FR874603</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>98.3</t>
+          <t>99.2</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -9661,12 +9661,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>centroid=48ffe3b392ff6086323c3b69b5d695f276de993c;size=38;;seqs=1</t>
+          <t>centroid=96b267a34d9a1052ef8b2742dbc5f109d4d957f1;size=10;;seqs=1</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -9691,37 +9691,37 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Arthropoda</t>
+          <t>Loricifera</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Crustacea</t>
+          <t>Loricifera_X</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Ostracoda</t>
+          <t>Loricifera_XX</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Polycope</t>
+          <t>Pliciloricus</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Polycope_sp.</t>
+          <t>Pliciloricus_sp.</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>AF363310</t>
+          <t>AY746986</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>92.4</t>
+          <t>87.8</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9736,17 +9736,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>centroid=74b4e603ccc17753aeee7fc2351df6665b13e81c;size=31;;seqs=2</t>
+          <t>centroid=c8f2fd758bf829f7ae199a378831b742ab9b41c7;size=37;;seqs=1</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -9761,42 +9761,42 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Stramenopiles-Gyrista</t>
+          <t>Rhizaria-Radiolaria</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Chrysophyceae</t>
+          <t>RAD-B</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Paraphysomonadales</t>
+          <t>RAD-B_X</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Paraphysomonadaceae</t>
+          <t>RAD-B_X_Group-IVd</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Paraphysomonas</t>
+          <t>RAD-B_X_Group-IVd_X</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Paraphysomonas_sp.</t>
+          <t>RAD-B_X_Group-IVd_X_sp.</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>FR874603</t>
+          <t>GU246589</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>99.2</t>
+          <t>98.3</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9811,17 +9811,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>centroid=60d1564251dc90da598f9a9958765f2585157298;size=15;;seqs=2</t>
+          <t>centroid=5d82a95100edc13ca22f780436e37a7a99fbf160;size=42;;seqs=1</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -9836,42 +9836,42 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Alveolata-Dinoflagellata</t>
+          <t>Rhizaria-Cercozoa</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Syndiniales</t>
+          <t>Filosa-Imbricatea</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Dino-Group-I</t>
+          <t>Thaumatomonadida</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Dino-Group-I-Clade-2</t>
+          <t>Thaumatomonadidae</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Dino-Group-I-Clade-2_X</t>
+          <t>Reckertia</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Dino-Group-I-Clade-2_X_sp.</t>
+          <t>Reckertia_filosa</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>KJ759860</t>
+          <t>AY268040</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>97.7</t>
+          <t>90.7</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9886,12 +9886,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>centroid=6c6e594f29370f089c1f709a8228d32822c77b24;size=106;;seqs=2</t>
+          <t>centroid=71a70e65fa833817c229d9f99d66ad21963be64b;size=23;;seqs=2</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -9901,52 +9901,52 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Bacteria</t>
+          <t>Eukaryota</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>PANNAM</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Proteobacteria-Proteobacteria_X</t>
+          <t>Alveolata-Dinoflagellata</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Gammaproteobacteria</t>
+          <t>Syndiniales</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Enterobacteriales</t>
+          <t>Dino-Group-I</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Enterobacteriaceae</t>
+          <t>Dino-Group-I-Clade-1</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Klebsiella</t>
+          <t>Dino-Group-I-Clade-1_X</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Klebsiella_variicola</t>
+          <t>Dino-Group-I-Clade-1_X_sp.</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>LBCM01000051</t>
+          <t>KF031740</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>99.8</t>
+          <t>97.0</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9961,12 +9961,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>centroid=96b267a34d9a1052ef8b2742dbc5f109d4d957f1;size=10;;seqs=1</t>
+          <t>centroid=1ead6582376d276c2749e02c0ace8ce7f92fd1b3;size=102;;seqs=1</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -9981,47 +9981,47 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Opisthokonta-Metazoa</t>
+          <t>Rhizaria-Cercozoa</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Loricifera</t>
+          <t>Endomyxa</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Loricifera_X</t>
+          <t>Filoretidae</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Loricifera_XX</t>
+          <t>Filoretidae_X</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Pliciloricus</t>
+          <t>Filoreta</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Pliciloricus_sp.</t>
+          <t>Filoreta_sp.</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>AY746986</t>
+          <t>DQ504354</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>87.8</t>
+          <t>86.3</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -10111,67 +10111,67 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>centroid=1ead6582376d276c2749e02c0ace8ce7f92fd1b3;size=102;;seqs=1</t>
+          <t>centroid=6c6e594f29370f089c1f709a8228d32822c77b24;size=106;;seqs=2</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Eukaryota</t>
+          <t>Bacteria</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>PANNAM</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Rhizaria-Cercozoa</t>
+          <t>Proteobacteria-Proteobacteria_X</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Endomyxa</t>
+          <t>Gammaproteobacteria</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Filoretidae</t>
+          <t>Enterobacteriales</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Filoretidae_X</t>
+          <t>Enterobacteriaceae</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Filoreta</t>
+          <t>Klebsiella</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Filoreta_sp.</t>
+          <t>Klebsiella_variicola</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>DQ504354</t>
+          <t>LBCM01000051</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>86.3</t>
+          <t>99.8</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -10186,17 +10186,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>centroid=191470f9f31d5a5313e0093568509420f3bb88de;size=37;;seqs=2</t>
+          <t>centroid=8f7f52df80ce94d1fb451f93eb79172deac68c07;size=72;;seqs=1</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -10211,42 +10211,42 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Rhizaria-Cercozoa</t>
+          <t>Alveolata-Dinoflagellata</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Endomyxa</t>
+          <t>Syndiniales</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Filoretidae</t>
+          <t>Dino-Group-II</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Filoretidae_X</t>
+          <t>Dino-Group-II-Clade-15</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Filoreta</t>
+          <t>Dino-Group-II-Clade-15_X</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Filoreta_sp.</t>
+          <t>Dino-Group-II-Clade-15_X_sp.</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>DQ504354</t>
+          <t>AF530532</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>95.4</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -10336,17 +10336,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>centroid=8f7f52df80ce94d1fb451f93eb79172deac68c07;size=72;;seqs=1</t>
+          <t>centroid=191470f9f31d5a5313e0093568509420f3bb88de;size=37;;seqs=2</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -10361,42 +10361,42 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Alveolata-Dinoflagellata</t>
+          <t>Rhizaria-Cercozoa</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Syndiniales</t>
+          <t>Endomyxa</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Dino-Group-II</t>
+          <t>Filoretidae</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Dino-Group-II-Clade-15</t>
+          <t>Filoretidae_X</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Dino-Group-II-Clade-15_X</t>
+          <t>Filoreta</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Dino-Group-II-Clade-15_X_sp.</t>
+          <t>Filoreta_sp.</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>AF530532</t>
+          <t>DQ504354</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>95.4</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -10486,12 +10486,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>centroid=1a5acaee9617fcbe1a295c5237798ce221e50f5f;size=12;;seqs=1</t>
+          <t>centroid=32846a89fe272582a4eff751cc16522cbb0461c9;size=9;;seqs=1</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -10511,42 +10511,42 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Stramenopiles-Gyrista</t>
+          <t>Stramenopiles-Bigyra</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Bacillariophyceae</t>
+          <t>Opalozoa</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Bacillariales</t>
+          <t>Placidida</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Bacillariaceae</t>
+          <t>Placidiales</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Fragilariopsis</t>
+          <t>Placidia</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Fragilariopsis_kerguelensis</t>
+          <t>Placidia_cafeteriopsis</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>LR812489</t>
+          <t>MW591541</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>92.5</t>
+          <t>91.6</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10561,12 +10561,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>centroid=32846a89fe272582a4eff751cc16522cbb0461c9;size=9;;seqs=1</t>
+          <t>centroid=1a5acaee9617fcbe1a295c5237798ce221e50f5f;size=12;;seqs=1</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -10586,42 +10586,42 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Stramenopiles-Bigyra</t>
+          <t>Stramenopiles-Gyrista</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Opalozoa</t>
+          <t>Bacillariophyceae</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Placidida</t>
+          <t>Bacillariales</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Placidiales</t>
+          <t>Bacillariaceae</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Placidia</t>
+          <t>Fragilariopsis</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Placidia_cafeteriopsis</t>
+          <t>Fragilariopsis_kerguelensis</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>MW591541</t>
+          <t>LR812489</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>91.6</t>
+          <t>92.5</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -10711,12 +10711,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>centroid=714a908c7d45dfe236669e7fd7a295f5fdbdba51;size=23;;seqs=1</t>
+          <t>centroid=609bfb4b04e6382cc26cf424d75690faf8f37975;size=24;;seqs=1</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -10731,47 +10731,47 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Alveolata-Perkinsea</t>
+          <t>Opisthokonta-Metazoa</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Perkinsida</t>
+          <t>Nematoda</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Perkinsida_X</t>
+          <t>Chromadorea</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Perkinsida_XX</t>
+          <t>Chromadorea_X</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Perkinsida_XXX</t>
+          <t>Chromadorea_XX</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Perkinsida_XXX_sp.</t>
+          <t>Chromadorea_XX_sp.</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>DQ244038</t>
+          <t>EU910601</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>92.4</t>
+          <t>98.8</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10786,17 +10786,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>centroid=fa89bd2c95c2dc155d7401486c0b72213aabdbaf;size=35;;seqs=3</t>
+          <t>centroid=07fd210c32ba55775e9e47707d6a5c5f85ff6fe4;size=291;;seqs=1</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -10806,47 +10806,47 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Cryptista</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Cryptophyta-Cryptophyta_X</t>
+          <t>Alveolata-Apicomplexa</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Cryptophyceae</t>
+          <t>Gregarinomorphea</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Cryptomonadales</t>
+          <t>Eugregarinorida</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Cryptomonadales_X</t>
+          <t>Gregarinidae</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Cryptomonas</t>
+          <t>Leidyana1</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Cryptomonas_sp.</t>
+          <t>Gregarina_blattarum</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>GU067870</t>
+          <t>FJ459741</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>99.9</t>
+          <t>90.7</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10861,17 +10861,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>centroid=07fd210c32ba55775e9e47707d6a5c5f85ff6fe4;size=291;;seqs=1</t>
+          <t>centroid=fa89bd2c95c2dc155d7401486c0b72213aabdbaf;size=35;;seqs=3</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -10881,47 +10881,47 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Cryptista</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Alveolata-Apicomplexa</t>
+          <t>Cryptophyta-Cryptophyta_X</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Gregarinomorphea</t>
+          <t>Cryptophyceae</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Eugregarinorida</t>
+          <t>Cryptomonadales</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Gregarinidae</t>
+          <t>Cryptomonadales_X</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Leidyana1</t>
+          <t>Cryptomonas</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Gregarina_blattarum</t>
+          <t>Cryptomonas_sp.</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>FJ459741</t>
+          <t>GU067870</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>90.7</t>
+          <t>99.9</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -11011,12 +11011,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>centroid=04d41ad0d440cecf813336a50aae6bdfd6c311e4;size=35;;seqs=1</t>
+          <t>centroid=714a908c7d45dfe236669e7fd7a295f5fdbdba51;size=23;;seqs=1</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -11031,47 +11031,47 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Opisthokonta-Metazoa</t>
+          <t>Alveolata-Perkinsea</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Nematoda</t>
+          <t>Perkinsida</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Enoplea</t>
+          <t>Perkinsida_X</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Enoplea_X</t>
+          <t>Perkinsida_XX</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Prismatolaimus</t>
+          <t>Perkinsida_XXX</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Prismatolaimus_dolichurus</t>
+          <t>Perkinsida_XXX_sp.</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>AY284727</t>
+          <t>DQ244038</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>98.3</t>
+          <t>92.4</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -11086,12 +11086,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>centroid=23d8fdf063f4c31a8e0dd27ced78b1d57824e557;size=24;;seqs=1</t>
+          <t>centroid=c1663096863dd6e709c021bdee0717673604b094;size=319;;seqs=1</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>319</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -11111,42 +11111,42 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Stramenopiles-Gyrista</t>
+          <t>Alveolata-Ciliophora</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Bacillariophyceae</t>
+          <t>Spirotrichea</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Bacillariales</t>
+          <t>Hypotrichia</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Bacillariaceae</t>
+          <t>Hypotrichia_X</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Fragilariopsis</t>
+          <t>Stichotricha</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Fragilariopsis_kerguelensis</t>
+          <t>Stichotricha_aculeata</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>LR812489</t>
+          <t>KR701611</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>96.9</t>
+          <t>99.4</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -11161,12 +11161,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>centroid=609bfb4b04e6382cc26cf424d75690faf8f37975;size=24;;seqs=1</t>
+          <t>centroid=b6f31081875015fa67e6260786eb2c6905ddd5e6;size=21;;seqs=1</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -11181,47 +11181,47 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Opisthokonta-Metazoa</t>
+          <t>Alveolata-Ciliophora</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Nematoda</t>
+          <t>Spirotrichea</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Chromadorea</t>
+          <t>Euplotia</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Chromadorea_X</t>
+          <t>Aspidiscidae</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Chromadorea_XX</t>
+          <t>Aspidisca</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Chromadorea_XX_sp.</t>
+          <t>Aspidisca_sp.</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>EU910601</t>
+          <t>FJ577826</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>98.8</t>
+          <t>91.2</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -11236,17 +11236,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>centroid=e4f85be30f5286be5520564f50bcdfd8c241836b;size=18;;seqs=2</t>
+          <t>centroid=04d41ad0d440cecf813336a50aae6bdfd6c311e4;size=35;;seqs=1</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -11261,42 +11261,42 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Opisthokonta-Fungi</t>
+          <t>Opisthokonta-Metazoa</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Rozellomycota</t>
+          <t>Nematoda</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Rozellomycota_X</t>
+          <t>Enoplea</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Rozellomycota_XX</t>
+          <t>Enoplea_X</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Rozellomycota_XXX</t>
+          <t>Prismatolaimus</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Rozellomycota_XXX_sp.</t>
+          <t>Prismatolaimus_dolichurus</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>AY642700</t>
+          <t>AY284727</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>89.9</t>
+          <t>98.3</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -11311,17 +11311,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>centroid=b6f31081875015fa67e6260786eb2c6905ddd5e6;size=21;;seqs=1</t>
+          <t>centroid=4661b969c10a1bd2c0d3d19e20a81b3f5ec9535b;size=34;;seqs=2</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -11336,42 +11336,42 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Alveolata-Ciliophora</t>
+          <t>Stramenopiles-Gyrista</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Spirotrichea</t>
+          <t>Chrysophyceae</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Euplotia</t>
+          <t>Synurales</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Aspidiscidae</t>
+          <t>Synuraceae</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Aspidisca</t>
+          <t>Mallomonas</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Aspidisca_sp.</t>
+          <t>Mallomonas_annulata</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>FJ577826</t>
+          <t>U73230</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>91.2</t>
+          <t>97.0</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -11386,17 +11386,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>centroid=4661b969c10a1bd2c0d3d19e20a81b3f5ec9535b;size=34;;seqs=2</t>
+          <t>centroid=2c463dfdcbb1918315f4f83b707634d7fd01afb2;size=65;;seqs=5</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -11406,47 +11406,47 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Stramenopiles-Gyrista</t>
+          <t>Opisthokonta-Fungi</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Chrysophyceae</t>
+          <t>Ascomycota</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Synurales</t>
+          <t>Pezizomycotina</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Synuraceae</t>
+          <t>Dothideomycetes</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Mallomonas</t>
+          <t>Catenulostroma</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Mallomonas_annulata</t>
+          <t>Catenulostroma_germanicum</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>U73230</t>
+          <t>GU214518</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>97.0</t>
+          <t>98.3</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -11461,12 +11461,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>centroid=c1663096863dd6e709c021bdee0717673604b094;size=319;;seqs=1</t>
+          <t>centroid=80f850376c378182e952e9882eabda70ee7febfb;size=10;;seqs=1</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -11481,47 +11481,47 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Excavata</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Alveolata-Ciliophora</t>
+          <t>Discoba-Euglenozoa</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Spirotrichea</t>
+          <t>Euglenida</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Hypotrichia</t>
+          <t>Petalomonadida</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Hypotrichia_X</t>
+          <t>Eupetalomonads_X</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Stichotricha</t>
+          <t>Eupetalomonads_XX</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Stichotricha_aculeata</t>
+          <t>Eupetalomonads_XX_sp.</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>KR701611</t>
+          <t>AY821957</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>99.4</t>
+          <t>97.7</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11536,17 +11536,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>centroid=2c463dfdcbb1918315f4f83b707634d7fd01afb2;size=65;;seqs=5</t>
+          <t>centroid=e4f85be30f5286be5520564f50bcdfd8c241836b;size=18;;seqs=2</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -11566,37 +11566,37 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Ascomycota</t>
+          <t>Rozellomycota</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Pezizomycotina</t>
+          <t>Rozellomycota_X</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Dothideomycetes</t>
+          <t>Rozellomycota_XX</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Catenulostroma</t>
+          <t>Rozellomycota_XXX</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Catenulostroma_germanicum</t>
+          <t>Rozellomycota_XXX_sp.</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>GU214518</t>
+          <t>AY642700</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>98.3</t>
+          <t>89.9</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11611,12 +11611,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>centroid=0a05472843c7f0d9c402180f25830829b1c83734;size=14;;seqs=1</t>
+          <t>centroid=23d8fdf063f4c31a8e0dd27ced78b1d57824e557;size=24;;seqs=1</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -11631,47 +11631,47 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Opisthokonta-Fungi</t>
+          <t>Stramenopiles-Gyrista</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Zoopagomycota</t>
+          <t>Bacillariophyceae</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Kickxellomycotina</t>
+          <t>Bacillariales</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Harpellales</t>
+          <t>Bacillariaceae</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Mycoemilia</t>
+          <t>Fragilariopsis</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Mycoemilia_scoparia</t>
+          <t>Fragilariopsis_kerguelensis</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>AB287985</t>
+          <t>LR812489</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>96.0</t>
+          <t>96.9</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11686,12 +11686,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>centroid=c41a396caaf795b5da3b0bcec72bff863b7790a4;size=111;;seqs=1</t>
+          <t>centroid=0a05472843c7f0d9c402180f25830829b1c83734;size=14;;seqs=1</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -11706,47 +11706,47 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Alveolata-Chrompodellids</t>
+          <t>Opisthokonta-Fungi</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Colpodellidea</t>
+          <t>Zoopagomycota</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Colpodellida</t>
+          <t>Kickxellomycotina</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Alphamonaceae</t>
+          <t>Harpellales</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Alphamonas</t>
+          <t>Mycoemilia</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Alphamonas_sp.</t>
+          <t>Mycoemilia_scoparia</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>GU067926</t>
+          <t>AB287985</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>86.2</t>
+          <t>96.0</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -11761,12 +11761,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>centroid=80f850376c378182e952e9882eabda70ee7febfb;size=10;;seqs=1</t>
+          <t>centroid=c41a396caaf795b5da3b0bcec72bff863b7790a4;size=111;;seqs=1</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -11781,47 +11781,47 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Excavata</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Discoba-Euglenozoa</t>
+          <t>Alveolata-Chrompodellids</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Euglenida</t>
+          <t>Colpodellidea</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Petalomonadida</t>
+          <t>Colpodellida</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Eupetalomonads_X</t>
+          <t>Alphamonaceae</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Eupetalomonads_XX</t>
+          <t>Alphamonas</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Eupetalomonads_XX_sp.</t>
+          <t>Alphamonas_sp.</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>AY821957</t>
+          <t>GU067926</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>97.7</t>
+          <t>86.2</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11911,17 +11911,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>centroid=63463322051bd75bf3a9155ed42a8ca0de31e173;size=9;;seqs=1</t>
+          <t>centroid=cbd1b78f21c8ecdf02a324cf3727e26b54ce86b8;size=10;;seqs=6</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -11931,47 +11931,47 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>TSAR</t>
+          <t>Archaeplastida</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Alveolata-Ciliophora</t>
+          <t>Chlorophyta-Chlorophyta_X</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Spirotrichea</t>
+          <t>Chlorophyceae</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Euplotia</t>
+          <t>Chlamydomonadales</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Euplotidae</t>
+          <t>Chlamydomonadales_X</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Euplotes</t>
+          <t>Chloromonas</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Euplotes_daidaleos</t>
+          <t>Chloromonas_perforata</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>FR873718</t>
+          <t>FR865585</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>99.7</t>
+          <t>97.5</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -11986,17 +11986,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>centroid=cbd1b78f21c8ecdf02a324cf3727e26b54ce86b8;size=10;;seqs=6</t>
+          <t>centroid=63463322051bd75bf3a9155ed42a8ca0de31e173;size=9;;seqs=1</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -12006,47 +12006,47 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Archaeplastida</t>
+          <t>TSAR</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Chlorophyta-Chlorophyta_X</t>
+          <t>Alveolata-Ciliophora</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Chlorophyceae</t>
+          <t>Spirotrichea</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Chlamydomonadales</t>
+          <t>Euplotia</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Chlamydomonadales_X</t>
+          <t>Euplotidae</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Chloromonas</t>
+          <t>Euplotes</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Chloromonas_perforata</t>
+          <t>Euplotes_daidaleos</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>FR865585</t>
+          <t>FR873718</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>97.5</t>
+          <t>99.7</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -12061,12 +12061,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>centroid=23d8fdf063f4c31a8e0dd27ced78b1d57824e557;size=41;;seqs=1</t>
+          <t>centroid=9ac561c5a6cfa59e4916c6c5f1c71ba109e24f29;size=18;;seqs=1</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -12086,42 +12086,42 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Stramenopiles-Gyrista</t>
+          <t>Rhizaria-Cercozoa</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Bacillariophyceae</t>
+          <t>Endomyxa</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Bacillariales</t>
+          <t>Vampyrellida</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Bacillariaceae</t>
+          <t>Leptophryidae</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Fragilariopsis</t>
+          <t>Leptophryidae_X</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Fragilariopsis_kerguelensis</t>
+          <t>Leptophryidae_X_strain_VI01</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>LR812489</t>
+          <t>XXXXXXXX</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>96.9</t>
+          <t>99.6</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -12136,12 +12136,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>centroid=9ac561c5a6cfa59e4916c6c5f1c71ba109e24f29;size=18;;seqs=1</t>
+          <t>centroid=23d8fdf063f4c31a8e0dd27ced78b1d57824e557;size=41;;seqs=1</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -12161,42 +12161,42 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Rhizaria-Cercozoa</t>
+          <t>Stramenopiles-Gyrista</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Endomyxa</t>
+          <t>Bacillariophyceae</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Vampyrellida</t>
+          <t>Bacillariales</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Leptophryidae</t>
+          <t>Bacillariaceae</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Leptophryidae_X</t>
+          <t>Fragilariopsis</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Leptophryidae_X_strain_VI01</t>
+          <t>Fragilariopsis_kerguelensis</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>XXXXXXXX</t>
+          <t>LR812489</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>99.6</t>
+          <t>96.9</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -12361,17 +12361,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>centroid=154c82fe953a8f363914af67c0587e2fbf3c7fd8;size=39;;seqs=13</t>
+          <t>centroid=8170328b8f1aa585b3ccbe0a2c163e14637f8aec;size=70;;seqs=2</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -12386,42 +12386,42 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Chlorophyta-Chlorophyta_X</t>
+          <t>Streptophyta-Streptophyta_X</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Trebouxiophyceae</t>
+          <t>Klebsormidiophyceae</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Watanabea-Clade</t>
+          <t>Klebsormidiophyceae_X</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Watanabea-Clade_X</t>
+          <t>Klebsormidiophyceae_XX</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Apatococcus</t>
+          <t>Klebsormidium</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Apatococcus_lobatus</t>
+          <t>Klebsormidium_nitens</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>JX169826</t>
+          <t>AJ250112</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>97.5</t>
+          <t>97.9</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -12436,17 +12436,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>centroid=dbcc7f985a1b6c7242cd7563032b836e68251447;size=66;;seqs=1</t>
+          <t>centroid=154c82fe953a8f363914af67c0587e2fbf3c7fd8;size=39;;seqs=13</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -12456,47 +12456,47 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>Archaeplastida</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Opisthokonta-Metazoa</t>
+          <t>Chlorophyta-Chlorophyta_X</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Arthropoda</t>
+          <t>Trebouxiophyceae</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Hexapoda</t>
+          <t>Watanabea-Clade</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Insecta</t>
+          <t>Watanabea-Clade_X</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Taeniogonalos</t>
+          <t>Apatococcus</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Taeniogonalos_gundlachii</t>
+          <t>Apatococcus_lobatus</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>GQ410627</t>
+          <t>JX169826</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>97.5</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -12511,67 +12511,67 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>centroid=d0e5c161a3b7966647e0608920ad3f40aa035426;size=13;;seqs=3</t>
+          <t>centroid=8cc940041ee2d056477d7daafd5ebc6c606f8ba8;size=10;;seqs=1</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Eukaryota</t>
+          <t>Bacteria</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Obazoa</t>
+          <t>Terrabacteria</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Opisthokonta-Fungi</t>
+          <t>Actinobacteria-Actinobacteria_X</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Ascomycota</t>
+          <t>Actinobacteria_XX</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Pezizomycotina</t>
+          <t>Corynebacteriales</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Dothideomycetes</t>
+          <t>Nocardiaceae</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Catenulostroma</t>
+          <t>Rhodococcus</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Catenulostroma_germanicum</t>
+          <t>Rhodococcus_rhodochrous</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>GU214518</t>
+          <t>GGWF01000956</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>94.6</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -12661,17 +12661,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>centroid=8170328b8f1aa585b3ccbe0a2c163e14637f8aec;size=70;;seqs=2</t>
+          <t>centroid=d0e5c161a3b7966647e0608920ad3f40aa035426;size=13;;seqs=3</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -12681,47 +12681,47 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Archaeplastida</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Streptophyta-Streptophyta_X</t>
+          <t>Opisthokonta-Fungi</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Klebsormidiophyceae</t>
+          <t>Ascomycota</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Klebsormidiophyceae_X</t>
+          <t>Pezizomycotina</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Klebsormidiophyceae_XX</t>
+          <t>Dothideomycetes</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Klebsormidium</t>
+          <t>Catenulostroma</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Klebsormidium_nitens</t>
+          <t>Catenulostroma_germanicum</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>AJ250112</t>
+          <t>GU214518</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>97.9</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -12736,12 +12736,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>centroid=8cc940041ee2d056477d7daafd5ebc6c606f8ba8;size=10;;seqs=1</t>
+          <t>centroid=dbcc7f985a1b6c7242cd7563032b836e68251447;size=66;;seqs=1</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -12751,52 +12751,52 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Bacteria</t>
+          <t>Eukaryota</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Terrabacteria</t>
+          <t>Obazoa</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Actinobacteria-Actinobacteria_X</t>
+          <t>Opisthokonta-Metazoa</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Actinobacteria_XX</t>
+          <t>Arthropoda</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Corynebacteriales</t>
+          <t>Hexapoda</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Nocardiaceae</t>
+          <t>Insecta</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Rhodococcus</t>
+          <t>Taeniogonalos</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Rhodococcus_rhodochrous</t>
+          <t>Taeniogonalos_gundlachii</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>GGWF01000956</t>
+          <t>GQ410627</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>94.6</t>
+          <t>94.0</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
